--- a/assets/temp-excel/Omset per Hari.xlsx
+++ b/assets/temp-excel/Omset per Hari.xlsx
@@ -88,21 +88,31 @@
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22/07/2023</t>
+          <t>01/08/2023</t>
         </is>
       </c>
       <c r="B2" s="3">
-        <v>54000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>15/08/2023</t>
+        </is>
+      </c>
+      <c r="B3" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B3" s="3">
-        <v>54000</v>
+      <c r="B4" s="3">
+        <v>80000</v>
       </c>
     </row>
   </sheetData>

--- a/assets/temp-excel/Omset per Hari.xlsx
+++ b/assets/temp-excel/Omset per Hari.xlsx
@@ -108,11 +108,41 @@
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="inlineStr">
         <is>
+          <t>17/08/2023</t>
+        </is>
+      </c>
+      <c r="B4" s="3">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>18/08/2023</t>
+        </is>
+      </c>
+      <c r="B5" s="3">
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>19/08/2023</t>
+        </is>
+      </c>
+      <c r="B6" s="3">
+        <v>256000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B4" s="3">
-        <v>80000</v>
+      <c r="B7" s="3">
+        <v>538000</v>
       </c>
     </row>
   </sheetData>
